--- a/Dataset(Updated)_MIdterm_sectoin(B).xlsx
+++ b/Dataset(Updated)_MIdterm_sectoin(B).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tohedul Islam\Dropbox\AIUB\Semester 33 Spring 24-25\Data Science\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180AE315-C330-4082-BBBC-F8E1376CBEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2AD571-C6C6-488A-9E55-BBCE60FA86B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6FB96026-4907-4EEC-ADD0-9878F778CE98}"/>
   </bookViews>
@@ -36,15 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="16">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="18">
   <si>
     <t>Age</t>
-  </si>
-  <si>
-    <t>Gender</t>
   </si>
   <si>
     <t>weight(kg)</t>
@@ -65,25 +59,37 @@
     <t>Caesarian</t>
   </si>
   <si>
-    <t>Female</t>
-  </si>
-  <si>
     <t>high</t>
   </si>
   <si>
     <t>normal</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>Malee</t>
+    <t>Weight</t>
   </si>
   <si>
-    <t>Maleee</t>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low&lt;60</t>
+  </si>
+  <si>
+    <t>Medium&lt;=75</t>
+  </si>
+  <si>
+    <t>High&gt; 76</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -456,44 +462,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F933300-A11B-4ED6-97E5-B49DA11C9A41}">
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="K63" sqref="K63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="9.1796875" customWidth="1"/>
+    <col min="11" max="11" width="14.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -501,28 +508,25 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>57.7</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -533,25 +537,22 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -562,25 +563,25 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -591,25 +592,25 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -617,28 +618,28 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -649,25 +650,25 @@
         <v>12</v>
       </c>
       <c r="D7">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -675,28 +676,25 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -707,25 +705,22 @@
         <v>12</v>
       </c>
       <c r="D9">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -733,25 +728,22 @@
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>63.5</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -762,25 +754,22 @@
         <v>12</v>
       </c>
       <c r="D11">
-        <v>64.5</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>11</v>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -791,25 +780,22 @@
         <v>12</v>
       </c>
       <c r="D12">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -820,25 +806,22 @@
         <v>12</v>
       </c>
       <c r="D13">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -846,28 +829,25 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D14">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s">
-        <v>11</v>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -875,28 +855,25 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -907,19 +884,16 @@
         <v>12</v>
       </c>
       <c r="D16">
-        <v>65</v>
-      </c>
-      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="G16">
         <v>1</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -927,28 +901,25 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
         <v>9</v>
       </c>
-      <c r="D17">
-        <v>61.5</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17" t="s">
-        <v>13</v>
+      <c r="G17">
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -959,25 +930,22 @@
         <v>12</v>
       </c>
       <c r="D18">
-        <v>61.5</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -985,28 +953,25 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19">
-        <v>55.5</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1014,28 +979,25 @@
         <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1043,28 +1005,25 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21">
-        <v>56.6</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21" t="s">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1075,25 +1034,22 @@
         <v>12</v>
       </c>
       <c r="D22">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="s">
-        <v>11</v>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1104,25 +1060,22 @@
         <v>12</v>
       </c>
       <c r="D23">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1133,25 +1086,22 @@
         <v>12</v>
       </c>
       <c r="D24">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="s">
-        <v>10</v>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1161,20 +1111,17 @@
       <c r="C25" t="s">
         <v>12</v>
       </c>
-      <c r="D25">
-        <v>65</v>
-      </c>
-      <c r="G25" t="s">
-        <v>13</v>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1182,28 +1129,25 @@
         <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1211,25 +1155,22 @@
         <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27">
-        <v>49</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27" t="s">
         <v>11</v>
       </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
       <c r="H27">
         <v>0</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1237,25 +1178,22 @@
         <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D28">
-        <v>50</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1263,28 +1201,25 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1295,25 +1230,22 @@
         <v>12</v>
       </c>
       <c r="D30">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1324,25 +1256,22 @@
         <v>12</v>
       </c>
       <c r="D31">
-        <v>62.5</v>
+        <v>2</v>
       </c>
       <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1350,28 +1279,25 @@
         <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D32">
-        <v>-58</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1379,28 +1305,25 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D33">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1411,25 +1334,22 @@
         <v>12</v>
       </c>
       <c r="D34">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1440,25 +1360,22 @@
         <v>12</v>
       </c>
       <c r="D35">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1466,28 +1383,25 @@
         <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D36">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="E36">
         <v>2</v>
       </c>
-      <c r="F36">
-        <v>2</v>
-      </c>
-      <c r="G36" t="s">
-        <v>11</v>
+      <c r="F36" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1498,25 +1412,22 @@
         <v>12</v>
       </c>
       <c r="D37">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1524,28 +1435,25 @@
         <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D38">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="s">
-        <v>11</v>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1556,25 +1464,22 @@
         <v>12</v>
       </c>
       <c r="D39">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="E39">
         <v>2</v>
       </c>
-      <c r="F39">
-        <v>2</v>
-      </c>
-      <c r="G39" t="s">
-        <v>11</v>
+      <c r="F39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1585,25 +1490,22 @@
         <v>12</v>
       </c>
       <c r="D40">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1611,28 +1513,25 @@
         <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D41">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>2</v>
-      </c>
-      <c r="G41" t="s">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1643,25 +1542,22 @@
         <v>12</v>
       </c>
       <c r="D42">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1669,28 +1565,25 @@
         <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D43">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1701,25 +1594,22 @@
         <v>12</v>
       </c>
       <c r="D44">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" t="s">
-        <v>10</v>
+      <c r="F44" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1727,28 +1617,25 @@
         <v>22</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D45">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1759,25 +1646,22 @@
         <v>12</v>
       </c>
       <c r="D46">
-        <v>72.5</v>
+        <v>4</v>
       </c>
       <c r="E46">
-        <v>4</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1785,28 +1669,25 @@
         <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47">
-        <v>62.5</v>
+        <v>3</v>
       </c>
       <c r="E47">
-        <v>3</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1814,25 +1695,25 @@
         <v>26</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
       </c>
       <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1843,25 +1724,22 @@
         <v>12</v>
       </c>
       <c r="D49">
-        <v>67.5</v>
+        <v>2</v>
       </c>
       <c r="E49">
-        <v>2</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1872,48 +1750,45 @@
         <v>12</v>
       </c>
       <c r="D50">
-        <v>62.5</v>
+        <v>2</v>
       </c>
       <c r="E50">
         <v>2</v>
       </c>
-      <c r="F50">
-        <v>2</v>
-      </c>
-      <c r="G50" t="s">
-        <v>11</v>
+      <c r="F50" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
       </c>
       <c r="E51">
-        <v>2</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
       </c>
       <c r="H51">
         <v>1</v>
       </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1924,25 +1799,22 @@
         <v>12</v>
       </c>
       <c r="D52">
-        <v>68.5</v>
+        <v>3</v>
       </c>
       <c r="E52">
-        <v>3</v>
-      </c>
-      <c r="F52">
-        <v>2</v>
-      </c>
-      <c r="G52" t="s">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="F52" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>1</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1950,28 +1822,25 @@
         <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D53">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="E53">
-        <v>2</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1979,28 +1848,25 @@
         <v>30</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D54">
-        <v>-68</v>
+        <v>3</v>
       </c>
       <c r="E54">
-        <v>3</v>
-      </c>
-      <c r="F54">
-        <v>2</v>
-      </c>
-      <c r="G54" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="F54" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2011,25 +1877,22 @@
         <v>12</v>
       </c>
       <c r="D55">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55" t="s">
-        <v>13</v>
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2040,25 +1903,22 @@
         <v>12</v>
       </c>
       <c r="D56">
-        <v>63.5</v>
+        <v>2</v>
       </c>
       <c r="E56">
-        <v>2</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="F56" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
       </c>
       <c r="H56">
         <v>1</v>
       </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2066,28 +1926,25 @@
         <v>25</v>
       </c>
       <c r="C57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D57">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="E57">
-        <v>2</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
       </c>
       <c r="H57">
         <v>0</v>
       </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2098,25 +1955,22 @@
         <v>12</v>
       </c>
       <c r="D58">
-        <v>67.5</v>
+        <v>3</v>
       </c>
       <c r="E58">
-        <v>3</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
       </c>
       <c r="H58">
         <v>1</v>
       </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2124,28 +1978,25 @@
         <v>95</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D59">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2153,28 +2004,25 @@
         <v>26</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60">
-        <v>61.5</v>
+        <v>1</v>
       </c>
       <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="F60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2185,25 +2033,22 @@
         <v>12</v>
       </c>
       <c r="D61">
-        <v>67.5</v>
+        <v>2</v>
       </c>
       <c r="E61">
-        <v>2</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>1</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2211,51 +2056,48 @@
         <v>22</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D62">
-        <v>58.5</v>
+        <v>1</v>
       </c>
       <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62">
-        <v>2</v>
-      </c>
-      <c r="G62" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="F62" t="s">
+        <v>7</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
       </c>
       <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2266,25 +2108,22 @@
         <v>12</v>
       </c>
       <c r="D64">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="E64">
-        <v>2</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2295,25 +2134,22 @@
         <v>12</v>
       </c>
       <c r="D65">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="E65">
-        <v>2</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="F65" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
-      <c r="I65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>64</v>
       </c>
@@ -2324,25 +2160,22 @@
         <v>12</v>
       </c>
       <c r="D66">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="E66">
-        <v>2</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="F66" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
       </c>
       <c r="H66">
         <v>1</v>
       </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>65</v>
       </c>
@@ -2353,25 +2186,22 @@
         <v>12</v>
       </c>
       <c r="D67">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67">
-        <v>2</v>
-      </c>
-      <c r="G67" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="F67" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>1</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>66</v>
       </c>
@@ -2382,25 +2212,22 @@
         <v>12</v>
       </c>
       <c r="D68">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="E68">
-        <v>2</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="F68" t="s">
+        <v>8</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>67</v>
       </c>
@@ -2408,28 +2235,25 @@
         <v>28</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69">
-        <v>62.5</v>
+        <v>3</v>
       </c>
       <c r="E69">
-        <v>3</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="F69" t="s">
+        <v>8</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>68</v>
       </c>
@@ -2440,25 +2264,22 @@
         <v>12</v>
       </c>
       <c r="D70">
-        <v>64.5</v>
+        <v>2</v>
       </c>
       <c r="E70">
-        <v>2</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="F70" t="s">
+        <v>8</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>1</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>69</v>
       </c>
@@ -2466,28 +2287,25 @@
         <v>25</v>
       </c>
       <c r="C71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71" t="s">
         <v>9</v>
       </c>
-      <c r="D71">
-        <v>62</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71" t="s">
-        <v>13</v>
+      <c r="G71">
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>70</v>
       </c>
@@ -2498,25 +2316,22 @@
         <v>12</v>
       </c>
       <c r="D72">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="E72">
         <v>2</v>
       </c>
-      <c r="F72">
-        <v>2</v>
-      </c>
-      <c r="G72" t="s">
-        <v>13</v>
+      <c r="F72" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
       </c>
       <c r="H72">
         <v>0</v>
       </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>71</v>
       </c>
@@ -2524,28 +2339,25 @@
         <v>90</v>
       </c>
       <c r="C73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D73">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="F73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>72</v>
       </c>
@@ -2556,22 +2368,19 @@
         <v>12</v>
       </c>
       <c r="D74">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="F74">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>73</v>
       </c>
@@ -2582,25 +2391,22 @@
         <v>12</v>
       </c>
       <c r="D75">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="E75">
-        <v>2</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="F75" t="s">
+        <v>8</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
       </c>
       <c r="H75">
         <v>0</v>
       </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>74</v>
       </c>
@@ -2611,25 +2417,22 @@
         <v>12</v>
       </c>
       <c r="D76">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="E76">
-        <v>3</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="F76" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>1</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>75</v>
       </c>
@@ -2640,25 +2443,22 @@
         <v>12</v>
       </c>
       <c r="D77">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="E77">
-        <v>3</v>
-      </c>
-      <c r="F77">
-        <v>2</v>
-      </c>
-      <c r="G77" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="F77" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
-      <c r="I77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>76</v>
       </c>
@@ -2669,25 +2469,22 @@
         <v>12</v>
       </c>
       <c r="D78">
-        <v>62.5</v>
+        <v>2</v>
       </c>
       <c r="E78">
-        <v>2</v>
-      </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="F78" t="s">
+        <v>8</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>77</v>
       </c>
@@ -2698,25 +2495,22 @@
         <v>12</v>
       </c>
       <c r="D79">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="E79">
-        <v>4</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="F79" t="s">
+        <v>8</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>78</v>
       </c>
@@ -2724,25 +2518,22 @@
         <v>12</v>
       </c>
       <c r="D80">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="E80">
-        <v>2</v>
-      </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-      <c r="G80" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="F80" t="s">
+        <v>7</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>79</v>
       </c>
@@ -2750,28 +2541,25 @@
         <v>25</v>
       </c>
       <c r="C81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D81">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81">
-        <v>2</v>
-      </c>
-      <c r="G81" t="s">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="F81" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>80</v>
       </c>
@@ -2779,24 +2567,21 @@
         <v>224</v>
       </c>
       <c r="C82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D82">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="E82">
         <v>2</v>
       </c>
-      <c r="F82">
-        <v>2</v>
-      </c>
-      <c r="G82" t="s">
-        <v>11</v>
+      <c r="F82" t="s">
+        <v>8</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82">
         <v>0</v>
       </c>
     </row>
@@ -2967,13 +2752,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{675FC61B-08B9-42D3-9D14-87E2D43002B4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38B81486-B658-4A76-AF24-29D770005730}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{932C2C21-61A3-40D6-8D3A-0F129AB0B424}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C6E821E-1FA9-477C-8583-761EF71B7D27}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4694A074-91CB-4A3A-BA9E-8C7BC641A3EA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{582D20FD-2053-4833-97C3-7A050E4C0B3D}"/>
 </file>